--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1573.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1573.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.069765232324289</v>
+        <v>0.8078123927116394</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.9029212594032288</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.096034526824951</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.306583642959595</v>
       </c>
       <c r="E1">
-        <v>1.111249488443055</v>
+        <v>1.621540904045105</v>
       </c>
     </row>
   </sheetData>
